--- a/movie_list.xlsx
+++ b/movie_list.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Romance</t>
+          <t>Terror</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/movie_list.xlsx
+++ b/movie_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="List" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/movie_list.xlsx
+++ b/movie_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="List" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>Não</t>
         </is>
       </c>
     </row>

--- a/movie_list.xlsx
+++ b/movie_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="List" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Homem Formiga </t>
+          <t>Homem Formiga</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://t.co/S5HVt9VvzG</t>
+          <t>asdkasdakdkasasksak</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Homem Formiga e A Vespa</t>
+          <t xml:space="preserve">Homem Formiga </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://t.co/35hvMymfzz</t>
+          <t>https://t.co/S5HVt9VvzG</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1932,15 +1932,19 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Suspense</t>
+          <t>Heróis</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ilha do Terror</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>Homem Formiga e A Vespa</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://t.co/35hvMymfzz</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1950,19 +1954,15 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ação/Aventura</t>
+          <t>Suspense</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Interestelar</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>https://t.co/Bp6iosMTTs</t>
-        </is>
-      </c>
+          <t>Ilha do Terror</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1972,17 +1972,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Terror</t>
+          <t>Ação/Aventura</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Invocação do Mal</t>
+          <t>Interestelar</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/19WN6-sFO1EbCxbxpdB92YpshDuFG_j8x/view</t>
+          <t>https://t.co/Bp6iosMTTs</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1999,12 +1999,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Invocação do Mal 2</t>
+          <t>Invocação do Mal</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1lqEwfo3lEAnUFY3C6rol087LbDPvVBNL/view?usp=sharing</t>
+          <t>https://drive.google.com/file/d/19WN6-sFO1EbCxbxpdB92YpshDuFG_j8x/view</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Invocação do Mal 3: a Ordem do Demônio</t>
+          <t>Invocação do Mal 2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://t.co/9ZnkgJOUM0</t>
+          <t>https://drive.google.com/file/d/1lqEwfo3lEAnUFY3C6rol087LbDPvVBNL/view?usp=sharing</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2038,17 +2038,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Animação</t>
+          <t>Terror</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Kung Fu Panda 3</t>
+          <t>Invocação do Mal 3: a Ordem do Demônio</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://topflix.fm/filmes/assistir-online-kung-fu-panda-3/?desk</t>
+          <t>https://t.co/9ZnkgJOUM0</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2065,12 +2065,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Lilo e Stitch</t>
+          <t>Kung Fu Panda 3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://t.co/BhVfYLvSoQ</t>
+          <t>https://topflix.fm/filmes/assistir-online-kung-fu-panda-3/?desk</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2087,12 +2087,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lilo e Stitch 2</t>
+          <t>Lilo e Stitch</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://t.co/34bRdhQXha</t>
+          <t>https://t.co/BhVfYLvSoQ</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2104,17 +2104,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Heróis</t>
+          <t>Animação</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mulher Maravilha</t>
+          <t>Lilo e Stitch 2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://t.co/qdx1J0zDp8</t>
+          <t>https://t.co/34bRdhQXha</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2126,17 +2126,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Animação</t>
+          <t>Heróis</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>O Bom Dinossauro</t>
+          <t>Mulher Maravilha</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1x3UQ3meE63YoN8Bpp_LXjwvdS3TN8gsk/view</t>
+          <t>https://t.co/qdx1J0zDp8</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2148,17 +2148,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Heróis</t>
+          <t>Animação</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>O Espetacular Homem-Aranha 2</t>
+          <t>O Bom Dinossauro</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1u74ePdT6WpAjCZmvnWNbS5NiwlGX1ZCw/view</t>
+          <t>https://drive.google.com/file/d/1x3UQ3meE63YoN8Bpp_LXjwvdS3TN8gsk/view</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2170,17 +2170,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Terror</t>
+          <t>Heróis</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>O Iluminado</t>
+          <t>O Espetacular Homem-Aranha 2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://t.co/mKwMuCOEKQ</t>
+          <t>https://drive.google.com/file/d/1u74ePdT6WpAjCZmvnWNbS5NiwlGX1ZCw/view</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Menino Que Matou Meus Pais </t>
+          <t>O Iluminado</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://t.co/3xTI0dPdsR</t>
+          <t>https://t.co/mKwMuCOEKQ</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2219,10 +2219,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>O Nevoeiro</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t xml:space="preserve">O Menino Que Matou Meus Pais </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://t.co/3xTI0dPdsR</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2232,19 +2236,15 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Animação</t>
+          <t>Terror</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Os Incríveis</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>https://t.co/Kb3I3c68SQ</t>
-        </is>
-      </c>
+          <t>O Nevoeiro</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Os Incríveis 2</t>
+          <t>Os Incríveis</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://t.co/wGEpTnV7sx</t>
+          <t>https://t.co/Kb3I3c68SQ</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2276,17 +2276,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Heróis</t>
+          <t>Animação</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Pantera Negra</t>
+          <t>Os Incríveis 2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://t.co/RBvgcMQm7k</t>
+          <t>https://t.co/wGEpTnV7sx</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2303,10 +2303,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Pantera Negra: Wakanda Forever</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>Pantera Negra</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://t.co/RBvgcMQm7k</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2321,7 +2325,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Pantera Negra: Wakanda Para Sempre</t>
+          <t>Pantera Negra: Wakanda Forever</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -2334,19 +2338,15 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Animação</t>
+          <t>Heróis</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Procurando Dory</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/file/d/1P1OgvS5XlBDWNfOBwv-Mu1Cqy6agRUIX/view</t>
-        </is>
-      </c>
+          <t>Pantera Negra: Wakanda Para Sempre</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Raya e o Último Dragão </t>
+          <t>Procurando Dory</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://t.co/iKfzm7R5ir</t>
+          <t>https://drive.google.com/file/d/1P1OgvS5XlBDWNfOBwv-Mu1Cqy6agRUIX/view</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2378,17 +2378,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Terror</t>
+          <t>Animação</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Rogai Por Nós</t>
+          <t xml:space="preserve">Raya e o Último Dragão </t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://t.co/9ZSBZoB3dq</t>
+          <t>https://t.co/iKfzm7R5ir</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2400,15 +2400,19 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Heróis</t>
+          <t>Terror</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Shang-Chi E A Lenda Dos Dez Anéis</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>Rogai Por Nós</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://t.co/9ZSBZoB3dq</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2423,14 +2427,10 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Shazam!</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>https://t.co/p9evEeckgQ</t>
-        </is>
-      </c>
+          <t>Shang-Chi E A Lenda Dos Dez Anéis</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2440,17 +2440,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Romance</t>
+          <t>Heróis</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Simplesmente Acontece</t>
+          <t>Shazam!</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1B1CFHl4I0zZgq2_ShX99ZquaNOJ1DzkR/view</t>
+          <t>https://t.co/p9evEeckgQ</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2462,17 +2462,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Animação</t>
+          <t>Romance</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Simplesmente Acontece</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1wixB2432TFKEhWy_N6b374VRHldoUX0b/view</t>
+          <t>https://drive.google.com/file/d/1B1CFHl4I0zZgq2_ShX99ZquaNOJ1DzkR/view</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2484,15 +2484,19 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Heróis</t>
+          <t>Animação</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>The Batman</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>Soul</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1wixB2432TFKEhWy_N6b374VRHldoUX0b/view</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2507,7 +2511,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Thor: Amor E Trovão</t>
+          <t>The Batman</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -2525,14 +2529,10 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Thor: Ragnarok</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>https://t.co/0uLLAJTSXo</t>
-        </is>
-      </c>
+          <t>Thor: Amor E Trovão</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2542,17 +2542,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Animação</t>
+          <t>Heróis</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Tinker Bell 2 - O Tesouro Perdido</t>
+          <t>Thor: Ragnarok</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/12KwCScFwEJp3WNS1HpnrUjryHf5hYVRH/view</t>
+          <t>https://t.co/0uLLAJTSXo</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2569,12 +2569,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Tinker Bell 3 - O resgate da fada</t>
+          <t>Tinker Bell 2 - O Tesouro Perdido</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1KUOZOZVI3qY8Y7IEzOoSVm5ZfAJP_xnh/view</t>
+          <t>https://drive.google.com/file/d/12KwCScFwEJp3WNS1HpnrUjryHf5hYVRH/view</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Toy Story 4</t>
+          <t>Tinker Bell 3 - O resgate da fada</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://megafilmeshdd.org/filmes/0002-toy-story-4/</t>
+          <t>https://drive.google.com/file/d/1KUOZOZVI3qY8Y7IEzOoSVm5ZfAJP_xnh/view</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2608,17 +2608,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Terror</t>
+          <t>Animação</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Um Lugar Silencioso</t>
+          <t>Toy Story 4</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://t.co/VNGwoEjPXM</t>
+          <t>https://megafilmeshdd.org/filmes/0002-toy-story-4/</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2635,12 +2635,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Um Lugar Silencioso 2</t>
+          <t>Um Lugar Silencioso</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://t.co/mQ9yYWRPby</t>
+          <t>https://t.co/VNGwoEjPXM</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2652,17 +2652,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Romance</t>
+          <t>Terror</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Um amor para recordar</t>
+          <t>Um Lugar Silencioso 2</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1JVSrxTmnZYykeyBetFOVAKvdn8ZM2AS7/view</t>
+          <t>https://t.co/mQ9yYWRPby</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2674,17 +2674,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Terror</t>
+          <t>Romance</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Uma Noite De Crime</t>
+          <t>Um amor para recordar</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://t.co/KRbO1u7ySH</t>
+          <t>https://drive.google.com/file/d/1JVSrxTmnZYykeyBetFOVAKvdn8ZM2AS7/view</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2696,17 +2696,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Animação</t>
+          <t>Terror</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Universidade Monstros</t>
+          <t>Uma Noite De Crime</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1D5noOTaG9jAzONwUSgupmJHUqpoWjCgM/view</t>
+          <t>https://t.co/KRbO1u7ySH</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Up - Altas Aventuras </t>
+          <t>Universidade Monstros</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1RNCS6zwCi--JEdnZe8LF6yeBjgOTwVg5/view</t>
+          <t>https://drive.google.com/file/d/1D5noOTaG9jAzONwUSgupmJHUqpoWjCgM/view</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Valente</t>
+          <t xml:space="preserve">Up - Altas Aventuras </t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://t.co/DgDyPGaXfg</t>
+          <t>https://drive.google.com/file/d/1RNCS6zwCi--JEdnZe8LF6yeBjgOTwVg5/view</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2762,17 +2762,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Heróis</t>
+          <t>Animação</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Viúva Negra</t>
+          <t>Valente</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://t.co/DZpMHpLA1S</t>
+          <t>https://t.co/DgDyPGaXfg</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2784,20 +2784,42 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Animação</t>
+          <t>Heróis</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>Viúva Negra</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://t.co/DZpMHpLA1S</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Animação</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
           <t xml:space="preserve">WALL·E </t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>https://drive.google.com/file/d/1QwX_EAsChLgZHKxRVaisBn7fOKaAp1V3/view</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
